--- a/Application-R/Application-TourismData/George/tourism.xlsx
+++ b/Application-R/Application-TourismData/George/tourism.xlsx
@@ -340,8 +340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="L103" sqref="L103"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112:E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1177,7 +1177,7 @@
         <f t="shared" si="0"/>
         <v>2006.333333333333</v>
       </c>
-      <c r="F101">
+      <c r="E101">
         <v>1</v>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
         <f t="shared" si="0"/>
         <v>2006.4166666666663</v>
       </c>
-      <c r="F102">
+      <c r="E102">
         <v>2</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
         <f t="shared" si="0"/>
         <v>2006.4999999999995</v>
       </c>
-      <c r="F103">
+      <c r="E103">
         <v>3</v>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         <f t="shared" si="0"/>
         <v>2006.5833333333328</v>
       </c>
-      <c r="F104">
+      <c r="E104">
         <v>4</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
         <f t="shared" si="0"/>
         <v>2006.6666666666661</v>
       </c>
-      <c r="F105">
+      <c r="E105">
         <v>5</v>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
         <f t="shared" si="0"/>
         <v>2006.7499999999993</v>
       </c>
-      <c r="F106">
+      <c r="E106">
         <v>6</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         <f t="shared" si="0"/>
         <v>2006.8333333333326</v>
       </c>
-      <c r="F107">
+      <c r="E107">
         <v>7</v>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
         <f t="shared" si="0"/>
         <v>2006.9166666666658</v>
       </c>
-      <c r="F108">
+      <c r="E108">
         <v>8</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
         <f t="shared" si="0"/>
         <v>2006.9999999999991</v>
       </c>
-      <c r="F109">
+      <c r="E109">
         <v>9</v>
       </c>
     </row>
@@ -1312,7 +1312,7 @@
         <f t="shared" ref="D110:D173" si="1">D109+$A$95</f>
         <v>2007.0833333333323</v>
       </c>
-      <c r="F110">
+      <c r="E110">
         <v>10</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
         <f t="shared" si="1"/>
         <v>2007.1666666666656</v>
       </c>
-      <c r="F111">
+      <c r="E111">
         <v>11</v>
       </c>
     </row>
@@ -1342,11 +1342,11 @@
         <f t="shared" si="1"/>
         <v>2007.2499999999989</v>
       </c>
-      <c r="F112">
+      <c r="E112">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B113" s="1">
         <v>39203</v>
       </c>
@@ -1357,11 +1357,11 @@
         <f t="shared" si="1"/>
         <v>2007.3333333333321</v>
       </c>
-      <c r="F113">
+      <c r="E113">
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B114" s="1">
         <v>39234</v>
       </c>
@@ -1372,11 +1372,11 @@
         <f t="shared" si="1"/>
         <v>2007.4166666666654</v>
       </c>
-      <c r="F114">
+      <c r="E114">
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B115" s="1">
         <v>39264</v>
       </c>
@@ -1387,11 +1387,11 @@
         <f t="shared" si="1"/>
         <v>2007.4999999999986</v>
       </c>
-      <c r="F115">
+      <c r="E115">
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B116" s="1">
         <v>39295</v>
       </c>
@@ -1402,11 +1402,11 @@
         <f t="shared" si="1"/>
         <v>2007.5833333333319</v>
       </c>
-      <c r="F116">
+      <c r="E116">
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B117" s="1">
         <v>39326</v>
       </c>
@@ -1417,11 +1417,11 @@
         <f t="shared" si="1"/>
         <v>2007.6666666666652</v>
       </c>
-      <c r="F117">
+      <c r="E117">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B118" s="1">
         <v>39356</v>
       </c>
@@ -1432,11 +1432,11 @@
         <f t="shared" si="1"/>
         <v>2007.7499999999984</v>
       </c>
-      <c r="F118">
+      <c r="E118">
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B119" s="1">
         <v>39387</v>
       </c>
@@ -1447,11 +1447,11 @@
         <f t="shared" si="1"/>
         <v>2007.8333333333317</v>
       </c>
-      <c r="F119">
+      <c r="E119">
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B120" s="1">
         <v>39417</v>
       </c>
@@ -1462,11 +1462,11 @@
         <f t="shared" si="1"/>
         <v>2007.9166666666649</v>
       </c>
-      <c r="F120">
+      <c r="E120">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B121" s="1">
         <v>39448</v>
       </c>
@@ -1477,11 +1477,11 @@
         <f t="shared" si="1"/>
         <v>2007.9999999999982</v>
       </c>
-      <c r="F121">
+      <c r="E121">
         <v>21</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B122" s="1">
         <v>39479</v>
       </c>
@@ -1492,11 +1492,11 @@
         <f t="shared" si="1"/>
         <v>2008.0833333333314</v>
       </c>
-      <c r="F122">
+      <c r="E122">
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B123" s="1">
         <v>39508</v>
       </c>
@@ -1507,11 +1507,11 @@
         <f t="shared" si="1"/>
         <v>2008.1666666666647</v>
       </c>
-      <c r="F123">
+      <c r="E123">
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B124" s="1">
         <v>39539</v>
       </c>
@@ -1522,11 +1522,11 @@
         <f t="shared" si="1"/>
         <v>2008.249999999998</v>
       </c>
-      <c r="F124">
+      <c r="E124">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B125" s="1">
         <v>39569</v>
       </c>
@@ -1537,11 +1537,11 @@
         <f t="shared" si="1"/>
         <v>2008.3333333333312</v>
       </c>
-      <c r="F125">
+      <c r="E125">
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B126" s="1">
         <v>39600</v>
       </c>
@@ -1552,11 +1552,11 @@
         <f t="shared" si="1"/>
         <v>2008.4166666666645</v>
       </c>
-      <c r="F126">
+      <c r="E126">
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B127" s="1">
         <v>39630</v>
       </c>
@@ -1567,8 +1567,11 @@
         <f t="shared" si="1"/>
         <v>2008.4999999999977</v>
       </c>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.5">
+      <c r="E127">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B128" s="1">
         <v>39661</v>
       </c>
@@ -1579,8 +1582,11 @@
         <f t="shared" si="1"/>
         <v>2008.583333333331</v>
       </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E128">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B129" s="1">
         <v>39692</v>
       </c>
@@ -1591,8 +1597,11 @@
         <f t="shared" si="1"/>
         <v>2008.6666666666642</v>
       </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E129">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B130" s="1">
         <v>39722</v>
       </c>
@@ -1603,8 +1612,11 @@
         <f t="shared" si="1"/>
         <v>2008.7499999999975</v>
       </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B131" s="1">
         <v>39753</v>
       </c>
@@ -1615,8 +1627,11 @@
         <f t="shared" si="1"/>
         <v>2008.8333333333308</v>
       </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E131">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B132" s="1">
         <v>39783</v>
       </c>
@@ -1627,8 +1642,11 @@
         <f t="shared" si="1"/>
         <v>2008.916666666664</v>
       </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E132">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B133" s="1">
         <v>39814</v>
       </c>
@@ -1639,8 +1657,11 @@
         <f t="shared" si="1"/>
         <v>2008.9999999999973</v>
       </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E133">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B134" s="1">
         <v>39845</v>
       </c>
@@ -1651,8 +1672,11 @@
         <f t="shared" si="1"/>
         <v>2009.0833333333305</v>
       </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E134">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B135" s="1">
         <v>39873</v>
       </c>
@@ -1663,8 +1687,11 @@
         <f t="shared" si="1"/>
         <v>2009.1666666666638</v>
       </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E135">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B136" s="1">
         <v>39904</v>
       </c>
@@ -1675,8 +1702,11 @@
         <f t="shared" si="1"/>
         <v>2009.249999999997</v>
       </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E136">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B137" s="1">
         <v>39934</v>
       </c>
@@ -1687,8 +1717,11 @@
         <f t="shared" si="1"/>
         <v>2009.3333333333303</v>
       </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E137">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B138" s="1">
         <v>39965</v>
       </c>
@@ -1699,8 +1732,11 @@
         <f t="shared" si="1"/>
         <v>2009.4166666666636</v>
       </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E138">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B139" s="1">
         <v>39995</v>
       </c>
@@ -1711,8 +1747,11 @@
         <f t="shared" si="1"/>
         <v>2009.4999999999968</v>
       </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E139">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B140" s="1">
         <v>40026</v>
       </c>
@@ -1723,8 +1762,11 @@
         <f t="shared" si="1"/>
         <v>2009.5833333333301</v>
       </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E140">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B141" s="1">
         <v>40057</v>
       </c>
@@ -1735,8 +1777,11 @@
         <f t="shared" si="1"/>
         <v>2009.6666666666633</v>
       </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E141">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B142" s="1">
         <v>40087</v>
       </c>
@@ -1747,8 +1792,11 @@
         <f t="shared" si="1"/>
         <v>2009.7499999999966</v>
       </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E142">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B143" s="1">
         <v>40118</v>
       </c>
@@ -1759,8 +1807,11 @@
         <f t="shared" si="1"/>
         <v>2009.8333333333298</v>
       </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E143">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B144" s="1">
         <v>40148</v>
       </c>
@@ -1771,8 +1822,11 @@
         <f t="shared" si="1"/>
         <v>2009.9166666666631</v>
       </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E144">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B145" s="1">
         <v>40179</v>
       </c>
@@ -1783,8 +1837,11 @@
         <f t="shared" si="1"/>
         <v>2009.9999999999964</v>
       </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E145">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B146" s="1">
         <v>40210</v>
       </c>
@@ -1795,8 +1852,11 @@
         <f t="shared" si="1"/>
         <v>2010.0833333333296</v>
       </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E146">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B147" s="1">
         <v>40238</v>
       </c>
@@ -1807,8 +1867,11 @@
         <f t="shared" si="1"/>
         <v>2010.1666666666629</v>
       </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E147">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B148" s="1">
         <v>40269</v>
       </c>
@@ -1819,8 +1882,11 @@
         <f t="shared" si="1"/>
         <v>2010.2499999999961</v>
       </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E148">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B149" s="1">
         <v>40299</v>
       </c>
@@ -1831,8 +1897,11 @@
         <f t="shared" si="1"/>
         <v>2010.3333333333294</v>
       </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E149">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B150" s="1">
         <v>40330</v>
       </c>
@@ -1843,8 +1912,11 @@
         <f t="shared" si="1"/>
         <v>2010.4166666666626</v>
       </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E150">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B151" s="1">
         <v>40360</v>
       </c>
@@ -1855,8 +1927,11 @@
         <f t="shared" si="1"/>
         <v>2010.4999999999959</v>
       </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E151">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B152" s="1">
         <v>40391</v>
       </c>
@@ -1867,8 +1942,11 @@
         <f t="shared" si="1"/>
         <v>2010.5833333333292</v>
       </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E152">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B153" s="1">
         <v>40422</v>
       </c>
@@ -1879,8 +1957,11 @@
         <f t="shared" si="1"/>
         <v>2010.6666666666624</v>
       </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E153">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B154" s="1">
         <v>40452</v>
       </c>
@@ -1891,8 +1972,11 @@
         <f t="shared" si="1"/>
         <v>2010.7499999999957</v>
       </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E154">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B155" s="1">
         <v>40483</v>
       </c>
@@ -1903,8 +1987,11 @@
         <f t="shared" si="1"/>
         <v>2010.8333333333289</v>
       </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E155">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B156" s="1">
         <v>40513</v>
       </c>
@@ -1915,8 +2002,11 @@
         <f t="shared" si="1"/>
         <v>2010.9166666666622</v>
       </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E156">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B157" s="1">
         <v>40544</v>
       </c>
@@ -1927,8 +2017,11 @@
         <f t="shared" si="1"/>
         <v>2010.9999999999955</v>
       </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E157">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B158" s="1">
         <v>40575</v>
       </c>
@@ -1939,8 +2032,11 @@
         <f t="shared" si="1"/>
         <v>2011.0833333333287</v>
       </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E158">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B159" s="1">
         <v>40603</v>
       </c>
@@ -1951,8 +2047,11 @@
         <f t="shared" si="1"/>
         <v>2011.166666666662</v>
       </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E159">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B160" s="1">
         <v>40634</v>
       </c>
@@ -1963,8 +2062,11 @@
         <f t="shared" si="1"/>
         <v>2011.2499999999952</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E160">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B161" s="1">
         <v>40664</v>
       </c>
@@ -1975,8 +2077,11 @@
         <f t="shared" si="1"/>
         <v>2011.3333333333285</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E161">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B162" s="1">
         <v>40695</v>
       </c>
@@ -1987,8 +2092,11 @@
         <f t="shared" si="1"/>
         <v>2011.4166666666617</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E162">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B163" s="1">
         <v>40725</v>
       </c>
@@ -1999,8 +2107,11 @@
         <f t="shared" si="1"/>
         <v>2011.499999999995</v>
       </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E163">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B164" s="1">
         <v>40756</v>
       </c>
@@ -2011,8 +2122,11 @@
         <f t="shared" si="1"/>
         <v>2011.5833333333283</v>
       </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E164">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B165" s="1">
         <v>40787</v>
       </c>
@@ -2023,8 +2137,11 @@
         <f t="shared" si="1"/>
         <v>2011.6666666666615</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E165">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B166" s="1">
         <v>40817</v>
       </c>
@@ -2035,8 +2152,11 @@
         <f t="shared" si="1"/>
         <v>2011.7499999999948</v>
       </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E166">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B167" s="1">
         <v>40848</v>
       </c>
@@ -2047,8 +2167,11 @@
         <f t="shared" si="1"/>
         <v>2011.833333333328</v>
       </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E167">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B168" s="1">
         <v>40878</v>
       </c>
@@ -2059,8 +2182,11 @@
         <f t="shared" si="1"/>
         <v>2011.9166666666613</v>
       </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E168">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B169" s="1">
         <v>40909</v>
       </c>
@@ -2071,8 +2197,11 @@
         <f t="shared" si="1"/>
         <v>2011.9999999999945</v>
       </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E169">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B170" s="1">
         <v>40940</v>
       </c>
@@ -2083,8 +2212,11 @@
         <f t="shared" si="1"/>
         <v>2012.0833333333278</v>
       </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E170">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B171" s="1">
         <v>40969</v>
       </c>
@@ -2095,8 +2227,11 @@
         <f t="shared" si="1"/>
         <v>2012.1666666666611</v>
       </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E171">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B172" s="1">
         <v>41000</v>
       </c>
@@ -2107,8 +2242,11 @@
         <f t="shared" si="1"/>
         <v>2012.2499999999943</v>
       </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E172">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B173" s="1">
         <v>41030</v>
       </c>
@@ -2119,8 +2257,11 @@
         <f t="shared" si="1"/>
         <v>2012.3333333333276</v>
       </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E173">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B174" s="1">
         <v>41061</v>
       </c>
@@ -2131,8 +2272,11 @@
         <f t="shared" ref="D174:D237" si="2">D173+$A$95</f>
         <v>2012.4166666666608</v>
       </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E174">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B175" s="1">
         <v>41091</v>
       </c>
@@ -2143,8 +2287,11 @@
         <f t="shared" si="2"/>
         <v>2012.4999999999941</v>
       </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E175">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B176" s="1">
         <v>41122</v>
       </c>
@@ -2155,8 +2302,11 @@
         <f t="shared" si="2"/>
         <v>2012.5833333333273</v>
       </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E176">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B177" s="1">
         <v>41153</v>
       </c>
@@ -2167,8 +2317,11 @@
         <f t="shared" si="2"/>
         <v>2012.6666666666606</v>
       </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E177">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B178" s="1">
         <v>41183</v>
       </c>
@@ -2179,8 +2332,11 @@
         <f t="shared" si="2"/>
         <v>2012.7499999999939</v>
       </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E178">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B179" s="1">
         <v>41214</v>
       </c>
@@ -2191,8 +2347,11 @@
         <f t="shared" si="2"/>
         <v>2012.8333333333271</v>
       </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E179">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B180" s="1">
         <v>41244</v>
       </c>
@@ -2203,8 +2362,11 @@
         <f t="shared" si="2"/>
         <v>2012.9166666666604</v>
       </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E180">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B181" s="1">
         <v>41275</v>
       </c>
@@ -2215,8 +2377,11 @@
         <f t="shared" si="2"/>
         <v>2012.9999999999936</v>
       </c>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E181">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B182" s="1">
         <v>41306</v>
       </c>
@@ -2227,8 +2392,11 @@
         <f t="shared" si="2"/>
         <v>2013.0833333333269</v>
       </c>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E182">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B183" s="1">
         <v>41334</v>
       </c>
@@ -2239,8 +2407,11 @@
         <f t="shared" si="2"/>
         <v>2013.1666666666601</v>
       </c>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E183">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B184" s="1">
         <v>41365</v>
       </c>
@@ -2251,8 +2422,11 @@
         <f t="shared" si="2"/>
         <v>2013.2499999999934</v>
       </c>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E184">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B185" s="1">
         <v>41395</v>
       </c>
@@ -2263,8 +2437,11 @@
         <f t="shared" si="2"/>
         <v>2013.3333333333267</v>
       </c>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E185">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B186" s="1">
         <v>41426</v>
       </c>
@@ -2275,8 +2452,11 @@
         <f t="shared" si="2"/>
         <v>2013.4166666666599</v>
       </c>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E186">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B187" s="1">
         <v>41456</v>
       </c>
@@ -2287,8 +2467,11 @@
         <f t="shared" si="2"/>
         <v>2013.4999999999932</v>
       </c>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E187">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B188" s="1">
         <v>41487</v>
       </c>
@@ -2299,8 +2482,11 @@
         <f t="shared" si="2"/>
         <v>2013.5833333333264</v>
       </c>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E188">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B189" s="1">
         <v>41518</v>
       </c>
@@ -2311,8 +2497,11 @@
         <f t="shared" si="2"/>
         <v>2013.6666666666597</v>
       </c>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E189">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B190" s="1">
         <v>41548</v>
       </c>
@@ -2323,8 +2512,11 @@
         <f t="shared" si="2"/>
         <v>2013.749999999993</v>
       </c>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E190">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B191" s="1">
         <v>41579</v>
       </c>
@@ -2335,8 +2527,11 @@
         <f t="shared" si="2"/>
         <v>2013.8333333333262</v>
       </c>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="E191">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.5">
       <c r="B192" s="1">
         <v>41609</v>
       </c>
@@ -2346,6 +2541,9 @@
       <c r="D192">
         <f t="shared" si="2"/>
         <v>2013.9166666666595</v>
+      </c>
+      <c r="E192">
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.5">
@@ -2359,6 +2557,9 @@
         <f t="shared" si="2"/>
         <v>2013.9999999999927</v>
       </c>
+      <c r="E193">
+        <v>93</v>
+      </c>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B194" s="1">
@@ -2371,6 +2572,9 @@
         <f t="shared" si="2"/>
         <v>2014.083333333326</v>
       </c>
+      <c r="E194">
+        <v>94</v>
+      </c>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B195" s="1">
@@ -2383,6 +2587,9 @@
         <f t="shared" si="2"/>
         <v>2014.1666666666592</v>
       </c>
+      <c r="E195">
+        <v>95</v>
+      </c>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B196" s="1">
@@ -2395,6 +2602,9 @@
         <f t="shared" si="2"/>
         <v>2014.2499999999925</v>
       </c>
+      <c r="E196">
+        <v>96</v>
+      </c>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B197" s="1">
@@ -2407,6 +2617,9 @@
         <f t="shared" si="2"/>
         <v>2014.3333333333258</v>
       </c>
+      <c r="E197">
+        <v>97</v>
+      </c>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B198" s="1">
@@ -2419,6 +2632,9 @@
         <f t="shared" si="2"/>
         <v>2014.416666666659</v>
       </c>
+      <c r="E198">
+        <v>98</v>
+      </c>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B199" s="1">
@@ -2431,6 +2647,9 @@
         <f t="shared" si="2"/>
         <v>2014.4999999999923</v>
       </c>
+      <c r="E199">
+        <v>99</v>
+      </c>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B200" s="1">
@@ -2443,6 +2662,9 @@
         <f t="shared" si="2"/>
         <v>2014.5833333333255</v>
       </c>
+      <c r="E200">
+        <v>100</v>
+      </c>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B201" s="1">
@@ -2455,6 +2677,9 @@
         <f t="shared" si="2"/>
         <v>2014.6666666666588</v>
       </c>
+      <c r="E201">
+        <v>101</v>
+      </c>
       <c r="F201">
         <v>1</v>
       </c>
@@ -2470,6 +2695,9 @@
         <f t="shared" si="2"/>
         <v>2014.749999999992</v>
       </c>
+      <c r="E202">
+        <v>102</v>
+      </c>
       <c r="F202">
         <v>2</v>
       </c>
@@ -2485,6 +2713,9 @@
         <f t="shared" si="2"/>
         <v>2014.8333333333253</v>
       </c>
+      <c r="E203">
+        <v>103</v>
+      </c>
       <c r="F203">
         <v>3</v>
       </c>
@@ -2500,6 +2731,9 @@
         <f t="shared" si="2"/>
         <v>2014.9166666666586</v>
       </c>
+      <c r="E204">
+        <v>104</v>
+      </c>
       <c r="F204">
         <v>4</v>
       </c>
@@ -2515,6 +2749,9 @@
         <f t="shared" si="2"/>
         <v>2014.9999999999918</v>
       </c>
+      <c r="E205">
+        <v>105</v>
+      </c>
       <c r="F205">
         <v>5</v>
       </c>
@@ -2530,6 +2767,9 @@
         <f t="shared" si="2"/>
         <v>2015.0833333333251</v>
       </c>
+      <c r="E206">
+        <v>106</v>
+      </c>
       <c r="F206">
         <v>6</v>
       </c>
@@ -2545,6 +2785,9 @@
         <f t="shared" si="2"/>
         <v>2015.1666666666583</v>
       </c>
+      <c r="E207">
+        <v>107</v>
+      </c>
       <c r="F207">
         <v>7</v>
       </c>
@@ -2560,6 +2803,9 @@
         <f t="shared" si="2"/>
         <v>2015.2499999999916</v>
       </c>
+      <c r="E208">
+        <v>108</v>
+      </c>
       <c r="F208">
         <v>8</v>
       </c>
@@ -2575,6 +2821,9 @@
         <f t="shared" si="2"/>
         <v>2015.3333333333248</v>
       </c>
+      <c r="E209">
+        <v>109</v>
+      </c>
       <c r="F209">
         <v>9</v>
       </c>
@@ -2590,6 +2839,9 @@
         <f t="shared" si="2"/>
         <v>2015.4166666666581</v>
       </c>
+      <c r="E210">
+        <v>110</v>
+      </c>
       <c r="F210">
         <v>10</v>
       </c>
@@ -2605,6 +2857,9 @@
         <f t="shared" si="2"/>
         <v>2015.4999999999914</v>
       </c>
+      <c r="E211">
+        <v>111</v>
+      </c>
       <c r="F211">
         <v>11</v>
       </c>
@@ -2620,6 +2875,9 @@
         <f t="shared" si="2"/>
         <v>2015.5833333333246</v>
       </c>
+      <c r="E212">
+        <v>112</v>
+      </c>
       <c r="F212">
         <v>12</v>
       </c>
@@ -2635,6 +2893,9 @@
         <f t="shared" si="2"/>
         <v>2015.6666666666579</v>
       </c>
+      <c r="E213">
+        <v>113</v>
+      </c>
       <c r="F213">
         <v>13</v>
       </c>
@@ -2650,6 +2911,9 @@
         <f t="shared" si="2"/>
         <v>2015.7499999999911</v>
       </c>
+      <c r="E214">
+        <v>114</v>
+      </c>
       <c r="F214">
         <v>14</v>
       </c>
@@ -2665,6 +2929,9 @@
         <f t="shared" si="2"/>
         <v>2015.8333333333244</v>
       </c>
+      <c r="E215">
+        <v>115</v>
+      </c>
       <c r="F215">
         <v>15</v>
       </c>
@@ -2680,6 +2947,9 @@
         <f t="shared" si="2"/>
         <v>2015.9166666666576</v>
       </c>
+      <c r="E216">
+        <v>116</v>
+      </c>
       <c r="F216">
         <v>16</v>
       </c>
@@ -2695,6 +2965,9 @@
         <f t="shared" si="2"/>
         <v>2015.9999999999909</v>
       </c>
+      <c r="E217">
+        <v>117</v>
+      </c>
       <c r="F217">
         <v>17</v>
       </c>
@@ -2710,6 +2983,9 @@
         <f t="shared" si="2"/>
         <v>2016.0833333333242</v>
       </c>
+      <c r="E218">
+        <v>118</v>
+      </c>
       <c r="F218">
         <v>18</v>
       </c>
@@ -2725,6 +3001,9 @@
         <f t="shared" si="2"/>
         <v>2016.1666666666574</v>
       </c>
+      <c r="E219">
+        <v>119</v>
+      </c>
       <c r="F219">
         <v>19</v>
       </c>
@@ -2740,6 +3019,9 @@
         <f t="shared" si="2"/>
         <v>2016.2499999999907</v>
       </c>
+      <c r="E220">
+        <v>120</v>
+      </c>
       <c r="F220">
         <v>20</v>
       </c>
@@ -2755,6 +3037,9 @@
         <f t="shared" si="2"/>
         <v>2016.3333333333239</v>
       </c>
+      <c r="E221">
+        <v>121</v>
+      </c>
       <c r="F221">
         <v>21</v>
       </c>
@@ -2770,6 +3055,9 @@
         <f t="shared" si="2"/>
         <v>2016.4166666666572</v>
       </c>
+      <c r="E222">
+        <v>122</v>
+      </c>
       <c r="F222">
         <v>22</v>
       </c>
@@ -2785,6 +3073,9 @@
         <f t="shared" si="2"/>
         <v>2016.4999999999905</v>
       </c>
+      <c r="E223">
+        <v>123</v>
+      </c>
       <c r="F223">
         <v>23</v>
       </c>
@@ -2800,6 +3091,9 @@
         <f t="shared" si="2"/>
         <v>2016.5833333333237</v>
       </c>
+      <c r="E224">
+        <v>124</v>
+      </c>
       <c r="F224">
         <v>24</v>
       </c>
@@ -2815,6 +3109,9 @@
         <f t="shared" si="2"/>
         <v>2016.666666666657</v>
       </c>
+      <c r="E225">
+        <v>125</v>
+      </c>
       <c r="F225">
         <v>25</v>
       </c>
@@ -2830,6 +3127,9 @@
         <f t="shared" si="2"/>
         <v>2016.7499999999902</v>
       </c>
+      <c r="E226">
+        <v>126</v>
+      </c>
       <c r="F226">
         <v>26</v>
       </c>
@@ -2845,6 +3145,9 @@
         <f t="shared" si="2"/>
         <v>2016.8333333333235</v>
       </c>
+      <c r="E227">
+        <v>127</v>
+      </c>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B228" s="1">
@@ -2857,6 +3160,9 @@
         <f t="shared" si="2"/>
         <v>2016.9166666666567</v>
       </c>
+      <c r="E228">
+        <v>128</v>
+      </c>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B229" s="1">
@@ -2869,6 +3175,9 @@
         <f t="shared" si="2"/>
         <v>2016.99999999999</v>
       </c>
+      <c r="E229">
+        <v>129</v>
+      </c>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B230" s="1">
@@ -2881,6 +3190,9 @@
         <f t="shared" si="2"/>
         <v>2017.0833333333233</v>
       </c>
+      <c r="E230">
+        <v>130</v>
+      </c>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B231" s="1">
@@ -2893,6 +3205,9 @@
         <f t="shared" si="2"/>
         <v>2017.1666666666565</v>
       </c>
+      <c r="E231">
+        <v>131</v>
+      </c>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B232" s="1">
@@ -2905,6 +3220,9 @@
         <f t="shared" si="2"/>
         <v>2017.2499999999898</v>
       </c>
+      <c r="E232">
+        <v>132</v>
+      </c>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B233" s="1">
@@ -2917,6 +3235,9 @@
         <f t="shared" si="2"/>
         <v>2017.333333333323</v>
       </c>
+      <c r="E233">
+        <v>133</v>
+      </c>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B234" s="1">
@@ -2929,6 +3250,9 @@
         <f t="shared" si="2"/>
         <v>2017.4166666666563</v>
       </c>
+      <c r="E234">
+        <v>134</v>
+      </c>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B235" s="1">
@@ -2941,6 +3265,9 @@
         <f t="shared" si="2"/>
         <v>2017.4999999999895</v>
       </c>
+      <c r="E235">
+        <v>135</v>
+      </c>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B236" s="1">
@@ -2953,6 +3280,9 @@
         <f t="shared" si="2"/>
         <v>2017.5833333333228</v>
       </c>
+      <c r="E236">
+        <v>136</v>
+      </c>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B237" s="1">
@@ -2965,6 +3295,9 @@
         <f t="shared" si="2"/>
         <v>2017.6666666666561</v>
       </c>
+      <c r="E237">
+        <v>137</v>
+      </c>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B238" s="1">
@@ -2977,6 +3310,9 @@
         <f t="shared" ref="D238:D240" si="3">D237+$A$95</f>
         <v>2017.7499999999893</v>
       </c>
+      <c r="E238">
+        <v>138</v>
+      </c>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B239" s="1">
@@ -2989,6 +3325,9 @@
         <f t="shared" si="3"/>
         <v>2017.8333333333226</v>
       </c>
+      <c r="E239">
+        <v>139</v>
+      </c>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B240" s="1">
@@ -3000,6 +3339,9 @@
       <c r="D240">
         <f t="shared" si="3"/>
         <v>2017.9166666666558</v>
+      </c>
+      <c r="E240">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
